--- a/Jogos_do_Dia/2024-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -830,14 +830,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="K3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.6</v>
       </c>
-      <c r="L3" t="n">
-        <v>3.8</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>3.56</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="L5" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.45</v>
@@ -1138,7 +1138,7 @@
         <v>2.14</v>
       </c>
       <c r="T5" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
         <v>1.86</v>

--- a/Jogos_do_Dia/2024-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -969,13 +969,13 @@
         <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="L4" t="n">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="M4" t="n">
         <v>1.3</v>
@@ -996,10 +996,10 @@
         <v>4.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="U4" t="n">
         <v>1.53</v>
@@ -1099,22 +1099,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.27</v>
+        <v>2.66</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="I5" t="n">
-        <v>3.56</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="K5" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="L5" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="M5" t="n">
         <v>1.45</v>
@@ -1123,37 +1123,37 @@
         <v>2.72</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>2.88</v>
       </c>
       <c r="Q5" t="n">
         <v>1.38</v>
       </c>
       <c r="R5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="S5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W5" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="X5" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" t="n">
         <v>2</v>
@@ -1247,13 +1247,13 @@
         <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="K6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.44</v>
@@ -1274,10 +1274,10 @@
         <v>2.98</v>
       </c>
       <c r="S6" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
         <v>1.91</v>
@@ -1386,13 +1386,13 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
@@ -1413,10 +1413,10 @@
         <v>3.4</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1525,13 +1525,13 @@
         <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="M8" t="n">
         <v>1.36</v>
@@ -1552,10 +1552,10 @@
         <v>3.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="U8" t="n">
         <v>1.67</v>
@@ -1664,13 +1664,13 @@
         <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="M9" t="n">
         <v>1.29</v>
@@ -1691,10 +1691,10 @@
         <v>4.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="n">
         <v>1.5</v>
@@ -1803,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M10" t="n">
         <v>1.36</v>
@@ -1830,10 +1830,10 @@
         <v>3.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -1942,13 +1942,13 @@
         <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.36</v>
@@ -1969,10 +1969,10 @@
         <v>3.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T11" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="U11" t="n">
         <v>1.67</v>
@@ -2081,13 +2081,13 @@
         <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>1.25</v>
@@ -2108,10 +2108,10 @@
         <v>4.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="U12" t="n">
         <v>1.67</v>
@@ -2220,13 +2220,13 @@
         <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M13" t="n">
         <v>1.5</v>
@@ -2247,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U13" t="n">
         <v>2.05</v>
@@ -2359,13 +2359,13 @@
         <v>1.95</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M14" t="n">
         <v>1.25</v>
@@ -2386,10 +2386,10 @@
         <v>4.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="T14" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
         <v>1.62</v>
@@ -2498,13 +2498,13 @@
         <v>4.33</v>
       </c>
       <c r="J15" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="M15" t="n">
         <v>1.3</v>
@@ -2525,10 +2525,10 @@
         <v>3.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="T15" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
         <v>1.57</v>
@@ -2637,13 +2637,13 @@
         <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.36</v>
@@ -2664,10 +2664,10 @@
         <v>3.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
         <v>1.91</v>
@@ -2776,13 +2776,13 @@
         <v>7.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.3</v>
@@ -2803,10 +2803,10 @@
         <v>3.9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2915,13 +2915,13 @@
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M18" t="n">
         <v>1.29</v>
@@ -2942,10 +2942,10 @@
         <v>4.5</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
         <v>1.53</v>
@@ -3054,13 +3054,13 @@
         <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="M19" t="n">
         <v>1.29</v>
@@ -3081,10 +3081,10 @@
         <v>4.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="T19" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
         <v>1.5</v>
@@ -3193,13 +3193,13 @@
         <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M20" t="n">
         <v>1.4</v>
@@ -3220,10 +3220,10 @@
         <v>3.4</v>
       </c>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
         <v>1.91</v>
@@ -3332,13 +3332,13 @@
         <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="M21" t="n">
         <v>1.44</v>
@@ -3359,10 +3359,10 @@
         <v>3.04</v>
       </c>
       <c r="S21" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T21" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="U21" t="n">
         <v>1.95</v>
@@ -3471,13 +3471,13 @@
         <v>1.98</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>5.23</v>
       </c>
       <c r="K22" t="n">
-        <v>4.33</v>
+        <v>4.17</v>
       </c>
       <c r="L22" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
         <v>1.28</v>
@@ -3498,10 +3498,10 @@
         <v>4.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="U22" t="n">
         <v>1.7</v>
@@ -3610,13 +3610,13 @@
         <v>2.37</v>
       </c>
       <c r="J23" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="L23" t="n">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="M23" t="n">
         <v>1.4</v>
@@ -3637,10 +3637,10 @@
         <v>3.25</v>
       </c>
       <c r="S23" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
         <v>1.88</v>
@@ -3749,13 +3749,13 @@
         <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="L24" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>1.37</v>
@@ -3776,7 +3776,7 @@
         <v>3.55</v>
       </c>
       <c r="S24" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="T24" t="n">
         <v>2</v>
@@ -3888,13 +3888,13 @@
         <v>7.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4.86</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="M25" t="n">
         <v>1.31</v>
@@ -3918,7 +3918,7 @@
         <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U25" t="n">
         <v>2.1</v>
@@ -4027,13 +4027,13 @@
         <v>3.71</v>
       </c>
       <c r="J26" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2.47</v>
       </c>
       <c r="M26" t="n">
         <v>1.31</v>
@@ -4054,10 +4054,10 @@
         <v>4.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="T26" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U26" t="n">
         <v>1.58</v>
@@ -4166,13 +4166,13 @@
         <v>2.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L27" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="M27" t="n">
         <v>1.25</v>
@@ -4196,7 +4196,7 @@
         <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="U27" t="n">
         <v>1.44</v>
@@ -4305,13 +4305,13 @@
         <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L28" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="M28" t="n">
         <v>1.4</v>
@@ -4332,10 +4332,10 @@
         <v>3.25</v>
       </c>
       <c r="S28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U28" t="n">
         <v>1.8</v>
@@ -4444,13 +4444,13 @@
         <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.36</v>
@@ -4471,10 +4471,10 @@
         <v>3.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="U29" t="n">
         <v>2.05</v>
@@ -4586,10 +4586,10 @@
         <v>1.5</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="L30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>1.33</v>
@@ -4610,10 +4610,10 @@
         <v>4.2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="T30" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="U30" t="n">
         <v>1.8</v>
@@ -4722,13 +4722,13 @@
         <v>4.33</v>
       </c>
       <c r="J31" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M31" t="n">
         <v>1.36</v>
@@ -4749,10 +4749,10 @@
         <v>3.7</v>
       </c>
       <c r="S31" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U31" t="n">
         <v>1.7</v>
@@ -4861,13 +4861,13 @@
         <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.4</v>
@@ -4888,10 +4888,10 @@
         <v>3.15</v>
       </c>
       <c r="S32" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T32" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
         <v>1.95</v>
@@ -5000,13 +5000,13 @@
         <v>3.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M33" t="n">
         <v>1.4</v>
@@ -5027,10 +5027,10 @@
         <v>3.7</v>
       </c>
       <c r="S33" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.81</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.98</v>
       </c>
       <c r="U33" t="n">
         <v>1.8</v>
@@ -5139,13 +5139,13 @@
         <v>2.75</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="M34" t="n">
         <v>1.4</v>
@@ -5166,10 +5166,10 @@
         <v>3.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T34" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U34" t="n">
         <v>1.75</v>
@@ -5278,13 +5278,13 @@
         <v>2.3</v>
       </c>
       <c r="J35" t="n">
-        <v>4.5</v>
+        <v>4.16</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>3.58</v>
       </c>
       <c r="L35" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="M35" t="n">
         <v>1.37</v>
@@ -5305,10 +5305,10 @@
         <v>3.45</v>
       </c>
       <c r="S35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T35" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U35" t="n">
         <v>1.8</v>
@@ -5417,13 +5417,13 @@
         <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>3.44</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4.66</v>
       </c>
       <c r="M36" t="n">
         <v>1.44</v>
@@ -5444,10 +5444,10 @@
         <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T36" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="U36" t="n">
         <v>2.05</v>

--- a/Jogos_do_Dia/2024-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>1.87</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="M4" t="n">
         <v>1.3</v>
@@ -1017,10 +1017,10 @@
         <v>1.47</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AB4" t="n">
         <v>2.03</v>
@@ -1102,16 +1102,16 @@
         <v>2.66</v>
       </c>
       <c r="H5" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="I5" t="n">
         <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>2.7</v>
@@ -1126,34 +1126,34 @@
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.88</v>
+        <v>2.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="S5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
         <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="X5" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="Z5" t="n">
         <v>2</v>
@@ -1229,124 +1229,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="S6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.05</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>1.7</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.33</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.39</v>
       </c>
     </row>
     <row r="7">
@@ -1368,124 +1368,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>4.8</v>
+        <v>2.85</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>1.04</v>
       </c>
       <c r="P7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="R7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.79</v>
+        <v>1.29</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.59</v>
+        <v>2.83</v>
       </c>
       <c r="AE7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>1.41</v>
       </c>
-      <c r="AF7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AK7" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8">
@@ -1507,124 +1507,124 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>2.85</v>
       </c>
       <c r="M8" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="R8" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.01</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
         <v>1.41</v>
       </c>
       <c r="X8" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.83</v>
+        <v>2.77</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.91</v>
+        <v>2.38</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9">
@@ -1691,10 +1691,10 @@
         <v>4.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="T9" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
         <v>1.5</v>
@@ -1830,7 +1830,7 @@
         <v>3.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
@@ -1924,124 +1924,124 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>1.72</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O11" t="n">
         <v>1.04</v>
       </c>
       <c r="P11" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="T11" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y11" t="n">
         <v>2.1</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1.48</v>
       </c>
-      <c r="X11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AK11" t="n">
-        <v>2.79</v>
+        <v>2.4</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.71</v>
+        <v>3.2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="12">
@@ -2063,130 +2063,130 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.02</v>
       </c>
       <c r="P12" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="R12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="T12" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="X12" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.13</v>
+        <v>0.93</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.96</v>
+        <v>2.59</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.26</v>
+        <v>1.82</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.86</v>
+        <v>2.29</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="AL12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1.73</v>
       </c>
-      <c r="AM12" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.58</v>
-      </c>
       <c r="AP12" t="n">
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2202,124 +2202,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2.08</v>
-      </c>
       <c r="AH13" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.91</v>
+        <v>2.71</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="14">
@@ -2341,31 +2341,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>6.4</v>
+        <v>1.43</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.55</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>1.25</v>
@@ -2377,88 +2377,88 @@
         <v>1.02</v>
       </c>
       <c r="P14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="R14" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="S14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.67</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>2.1</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB14" t="n">
         <v>1.62</v>
       </c>
-      <c r="V14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AH14" t="n">
         <v>1.21</v>
       </c>
-      <c r="AB14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="15">
@@ -2480,130 +2480,130 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>1.95</v>
       </c>
       <c r="J15" t="n">
-        <v>1.87</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>3.95</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="R15" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.77</v>
+        <v>1.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.64</v>
+        <v>3.82</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.66</v>
+        <v>1.37</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ15" t="n">
         <v>1.33</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2619,94 +2619,94 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.25</v>
       </c>
-      <c r="I16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="U16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA16" t="n">
         <v>1.36</v>
       </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AB16" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.86</v>
+        <v>2.66</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.42</v>
+        <v>2.93</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AM16" t="n">
-        <v>2.49</v>
+        <v>2.17</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="17">
@@ -2803,10 +2803,10 @@
         <v>3.9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2897,130 +2897,130 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Notts County</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
         <v>2.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.87</v>
+        <v>2.95</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.8</v>
+        <v>2.19</v>
       </c>
       <c r="M18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R18" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="S18" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
         <v>1.25</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.93</v>
+        <v>1.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.59</v>
+        <v>2.72</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.82</v>
+        <v>2.44</v>
       </c>
       <c r="AF18" t="n">
         <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3036,94 +3036,94 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>2.85</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R19" t="n">
         <v>3.5</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4.5</v>
-      </c>
       <c r="S19" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB19" t="n">
         <v>1.41</v>
       </c>
-      <c r="X19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.46</v>
-      </c>
       <c r="AC19" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.77</v>
+        <v>2.59</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.32</v>
+        <v>3.86</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -3132,28 +3132,28 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AK19" t="n">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="20">
@@ -3175,55 +3175,55 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P20" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R20" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="S20" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="U20" t="n">
         <v>1.91</v>
@@ -3232,37 +3232,37 @@
         <v>1.91</v>
       </c>
       <c r="W20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA20" t="n">
         <v>1.25</v>
       </c>
-      <c r="X20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AB20" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.42</v>
+        <v>1.89</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.25</v>
+        <v>9.1</v>
       </c>
       <c r="AG20" t="n">
-        <v>3.44</v>
+        <v>2.2</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -3271,28 +3271,28 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="21">
@@ -3314,124 +3314,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>1.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.9</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.87</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="X21" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.21</v>
+        <v>2.85</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.25</v>
+        <v>2.07</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>0.77</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AC21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>1.37</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="22">
@@ -3471,13 +3471,13 @@
         <v>1.98</v>
       </c>
       <c r="J22" t="n">
-        <v>5.23</v>
+        <v>5.8</v>
       </c>
       <c r="K22" t="n">
-        <v>4.17</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
         <v>1.28</v>
@@ -3498,10 +3498,10 @@
         <v>4.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="T22" t="n">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="U22" t="n">
         <v>1.7</v>
@@ -3610,13 +3610,13 @@
         <v>2.37</v>
       </c>
       <c r="J23" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.53</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="M23" t="n">
         <v>1.4</v>
@@ -3640,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U23" t="n">
         <v>1.88</v>
@@ -3749,13 +3749,13 @@
         <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="K24" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.37</v>
@@ -3776,10 +3776,10 @@
         <v>3.55</v>
       </c>
       <c r="S24" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
         <v>1.68</v>
@@ -3870,130 +3870,130 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>2.76</v>
       </c>
       <c r="H25" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="I25" t="n">
-        <v>7.25</v>
+        <v>3.71</v>
       </c>
       <c r="J25" t="n">
-        <v>1.26</v>
+        <v>2.34</v>
       </c>
       <c r="K25" t="n">
-        <v>4.86</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>8.550000000000001</v>
+        <v>2.85</v>
       </c>
       <c r="M25" t="n">
         <v>1.31</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="O25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="R25" t="n">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="S25" t="n">
         <v>1.67</v>
       </c>
       <c r="T25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V25" t="n">
         <v>2.2</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.05</v>
+        <v>1.38</v>
       </c>
       <c r="X25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA25" t="n">
         <v>1.14</v>
       </c>
-      <c r="Y25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.47</v>
-      </c>
       <c r="AB25" t="n">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.82</v>
+        <v>2.54</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>3.69</v>
+        <v>2.27</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AI25" t="n">
-        <v>4.3</v>
+        <v>4.95</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.93</v>
+        <v>3.34</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.19</v>
+        <v>2.44</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,134 +4005,134 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
         <v>2.4</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.47</v>
-      </c>
       <c r="M26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC26" t="n">
         <v>1.31</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.28</v>
       </c>
       <c r="AD26" t="n">
         <v>2.54</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.27</v>
+        <v>2.03</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AK26" t="n">
-        <v>3.34</v>
+        <v>2.84</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AM26" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.34</v>
+        <v>2.72</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -4144,128 +4144,128 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Notts County</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>7.25</v>
       </c>
       <c r="J27" t="n">
-        <v>2.95</v>
+        <v>1.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="L27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM27" t="n">
         <v>2.19</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="AN27" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>1.44</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4287,55 +4287,55 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T28" t="n">
         <v>2.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.76</v>
       </c>
       <c r="U28" t="n">
         <v>1.8</v>
@@ -4344,37 +4344,37 @@
         <v>1.95</v>
       </c>
       <c r="W28" t="n">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="X28" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.07</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.54</v>
+        <v>2.87</v>
       </c>
       <c r="AE28" t="n">
-        <v>2.03</v>
+        <v>1.41</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.03</v>
+        <v>3.48</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -4383,28 +4383,28 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AK28" t="n">
-        <v>2.84</v>
+        <v>3.65</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AM28" t="n">
-        <v>2.12</v>
+        <v>2.65</v>
       </c>
       <c r="AN28" t="n">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="29">
@@ -4426,31 +4426,31 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="J29" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="K29" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>7.5</v>
+        <v>3.85</v>
       </c>
       <c r="M29" t="n">
         <v>1.36</v>
@@ -4459,91 +4459,91 @@
         <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P29" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.25</v>
       </c>
-      <c r="R29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.08</v>
-      </c>
       <c r="X29" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.85</v>
+        <v>1.83</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.07</v>
+        <v>1.73</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.77</v>
+        <v>1.13</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.72</v>
+        <v>2.37</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>4.65</v>
+        <v>2.96</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.95</v>
+        <v>3.42</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.76</v>
+        <v>2.47</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AM29" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.75</v>
+        <v>3.18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="30">
@@ -4565,124 +4565,124 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P30" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Z30" t="n">
         <v>1.5</v>
       </c>
-      <c r="K30" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P30" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>2</v>
-      </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.87</v>
+        <v>2.43</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG30" t="n">
         <v>3.48</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.95</v>
+        <v>2.39</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="31">
@@ -4704,43 +4704,43 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="M31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.05</v>
       </c>
       <c r="P31" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Q31" t="n">
         <v>1.22</v>
@@ -4749,79 +4749,79 @@
         <v>3.7</v>
       </c>
       <c r="S31" t="n">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="T31" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X31" t="n">
         <v>1.25</v>
       </c>
-      <c r="X31" t="n">
-        <v>1.22</v>
-      </c>
       <c r="Y31" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.73</v>
+        <v>0.73</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.91</v>
+        <v>1.15</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.96</v>
+        <v>2.15</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
       <c r="AK31" t="n">
-        <v>2.47</v>
+        <v>3.34</v>
       </c>
       <c r="AL31" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AN31" t="n">
         <v>1.85</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AO31" t="n">
         <v>1.89</v>
       </c>
-      <c r="AN31" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AP31" t="n">
-        <v>3.18</v>
+        <v>2.34</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="32">
@@ -4843,55 +4843,55 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="H32" t="n">
         <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="J32" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>1.81</v>
       </c>
       <c r="M32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P32" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="R32" t="n">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="S32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U32" t="n">
         <v>1.95</v>
@@ -4900,67 +4900,67 @@
         <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Y32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AP32" t="n">
         <v>2.08</v>
       </c>
-      <c r="Z32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AQ32" t="n">
-        <v>1.28</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="33">
@@ -4982,31 +4982,31 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>2.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
         <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>2.55</v>
+        <v>2.12</v>
       </c>
       <c r="M33" t="n">
         <v>1.4</v>
@@ -5015,91 +5015,91 @@
         <v>2.75</v>
       </c>
       <c r="O33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P33" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="R33" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="S33" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="T33" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="X33" t="n">
         <v>1.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.73</v>
+        <v>1.07</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.43</v>
+        <v>2.63</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.34</v>
+        <v>2.58</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="AM33" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="34">
@@ -5121,31 +5121,31 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.8</v>
       </c>
-      <c r="K34" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.94</v>
+        <v>4.3</v>
       </c>
       <c r="M34" t="n">
         <v>1.4</v>
@@ -5154,91 +5154,91 @@
         <v>2.75</v>
       </c>
       <c r="O34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P34" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="n">
         <v>1.3</v>
       </c>
       <c r="R34" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S34" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="T34" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="U34" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="X34" t="n">
         <v>1.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.07</v>
+        <v>1.71</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="AE34" t="n">
-        <v>2.48</v>
+        <v>1.42</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.1</v>
+        <v>10.25</v>
       </c>
       <c r="AG34" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AO34" t="n">
         <v>1.75</v>
       </c>
-      <c r="AH34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AJ34" t="n">
+      <c r="AP34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="35">
@@ -5278,13 +5278,13 @@
         <v>2.3</v>
       </c>
       <c r="J35" t="n">
-        <v>4.16</v>
+        <v>4.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="M35" t="n">
         <v>1.37</v>
@@ -5305,10 +5305,10 @@
         <v>3.45</v>
       </c>
       <c r="S35" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T35" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
         <v>1.8</v>
@@ -5417,13 +5417,13 @@
         <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="K36" t="n">
-        <v>3.44</v>
+        <v>3.7</v>
       </c>
       <c r="L36" t="n">
-        <v>4.66</v>
+        <v>5.2</v>
       </c>
       <c r="M36" t="n">
         <v>1.44</v>
@@ -5444,10 +5444,10 @@
         <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T36" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="U36" t="n">
         <v>2.05</v>

--- a/Jogos_do_Dia/2024-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,67 +682,67 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AB2" t="n">
         <v>1.51</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.62</v>
       </c>
       <c r="L3" t="n">
-        <v>3.55</v>
+        <v>3.53</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>1.87</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>1.09</v>
@@ -969,13 +969,13 @@
         <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>2.21</v>
+        <v>2.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.3</v>
@@ -996,10 +996,10 @@
         <v>4.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="T4" t="n">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
         <v>1.53</v>
@@ -1017,10 +1017,10 @@
         <v>1.47</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AB4" t="n">
         <v>2.03</v>
@@ -1099,22 +1099,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.45</v>
@@ -1126,40 +1126,40 @@
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
         <v>1.45</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AB5" t="n">
         <v>1.62</v>
@@ -1192,7 +1192,7 @@
         <v>2.57</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="AM5" t="n">
         <v>2.01</v>
@@ -1213,7 +1213,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1229,124 +1229,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.61</v>
       </c>
       <c r="L6" t="n">
-        <v>3.55</v>
+        <v>4.19</v>
       </c>
       <c r="M6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P6" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.28</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.33</v>
       </c>
     </row>
     <row r="7">
@@ -1386,13 +1386,13 @@
         <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="L7" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,10 +1413,10 @@
         <v>3.6</v>
       </c>
       <c r="S7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.81</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.01</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1525,13 +1525,13 @@
         <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.28</v>
+        <v>2.53</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.37</v>
       </c>
       <c r="L8" t="n">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="M8" t="n">
         <v>1.29</v>
@@ -1552,10 +1552,10 @@
         <v>4.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
         <v>1.5</v>
@@ -1664,13 +1664,13 @@
         <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="L9" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="M9" t="n">
         <v>1.29</v>
@@ -1691,10 +1691,10 @@
         <v>4.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>1.5</v>
@@ -1803,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8</v>
+        <v>4.26</v>
       </c>
       <c r="M10" t="n">
         <v>1.36</v>
@@ -1830,10 +1830,10 @@
         <v>3.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -1924,124 +1924,124 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.72</v>
+        <v>2.74</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.43</v>
       </c>
       <c r="L11" t="n">
-        <v>4.8</v>
+        <v>2.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>1.04</v>
       </c>
       <c r="P11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.27</v>
       </c>
-      <c r="R11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.23</v>
-      </c>
       <c r="Y11" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.79</v>
+        <v>1.38</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.59</v>
+        <v>2.91</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.41</v>
+        <v>2.05</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.49</v>
+        <v>2</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.34</v>
+        <v>3.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.4</v>
+        <v>2.79</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.2</v>
+        <v>2.71</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.62</v>
       </c>
       <c r="L12" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="M12" t="n">
         <v>1.29</v>
@@ -2108,10 +2108,10 @@
         <v>4.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>1.53</v>
@@ -2186,7 +2186,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2202,124 +2202,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
         <v>2.2</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.81</v>
-      </c>
       <c r="T13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM13" t="n">
         <v>2.01</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AN13" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP13" t="n">
         <v>2.91</v>
       </c>
-      <c r="AE13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.71</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.39</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>5.98</v>
       </c>
       <c r="M14" t="n">
         <v>1.25</v>
@@ -2386,10 +2386,10 @@
         <v>4.9</v>
       </c>
       <c r="S14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="T14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
         <v>1.67</v>
@@ -2498,13 +2498,13 @@
         <v>1.95</v>
       </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>4.33</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.89</v>
       </c>
       <c r="L15" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="M15" t="n">
         <v>1.25</v>
@@ -2525,10 +2525,10 @@
         <v>4.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1.62</v>
@@ -2637,13 +2637,13 @@
         <v>4.33</v>
       </c>
       <c r="J16" t="n">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>3.95</v>
+        <v>3.51</v>
       </c>
       <c r="M16" t="n">
         <v>1.3</v>
@@ -2664,10 +2664,10 @@
         <v>3.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="U16" t="n">
         <v>1.57</v>
@@ -2776,13 +2776,13 @@
         <v>7.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>4.61</v>
       </c>
       <c r="L17" t="n">
-        <v>7.6</v>
+        <v>7.11</v>
       </c>
       <c r="M17" t="n">
         <v>1.3</v>
@@ -2803,10 +2803,10 @@
         <v>3.9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="T17" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2915,13 +2915,13 @@
         <v>2.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.95</v>
+        <v>3.11</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.63</v>
       </c>
       <c r="L18" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="M18" t="n">
         <v>1.25</v>
@@ -2945,7 +2945,7 @@
         <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3054,13 +3054,13 @@
         <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.64</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>4.47</v>
       </c>
       <c r="M19" t="n">
         <v>1.36</v>
@@ -3081,10 +3081,10 @@
         <v>3.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T19" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3126,10 +3126,10 @@
         <v>3.86</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.25</v>
@@ -3193,13 +3193,13 @@
         <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="M20" t="n">
         <v>1.44</v>
@@ -3220,10 +3220,10 @@
         <v>2.98</v>
       </c>
       <c r="S20" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
         <v>1.91</v>
@@ -3265,10 +3265,10 @@
         <v>2.2</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ20" t="n">
         <v>1.36</v>
@@ -3314,124 +3314,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="K21" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI21" t="n">
         <v>4.5</v>
       </c>
-      <c r="L21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AB21" t="n">
+      <c r="AJ21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AL21" t="n">
         <v>1.6</v>
       </c>
-      <c r="AC21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AM21" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="22">
@@ -3471,13 +3471,13 @@
         <v>1.98</v>
       </c>
       <c r="J22" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
         <v>1.28</v>
@@ -3498,10 +3498,10 @@
         <v>4.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
         <v>1.7</v>
@@ -3610,13 +3610,13 @@
         <v>2.37</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>5.16</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.93</v>
       </c>
       <c r="L23" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="M23" t="n">
         <v>1.4</v>
@@ -3637,10 +3637,10 @@
         <v>3.25</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="n">
         <v>1.88</v>
@@ -3749,13 +3749,13 @@
         <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="L24" t="n">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.37</v>
@@ -3776,10 +3776,10 @@
         <v>3.55</v>
       </c>
       <c r="S24" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="n">
         <v>1.68</v>
@@ -3854,7 +3854,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3866,134 +3866,134 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.76</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.71</v>
+        <v>2.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.34</v>
+        <v>3.89</v>
       </c>
       <c r="K25" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI25" t="n">
         <v>3.65</v>
       </c>
-      <c r="L25" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P25" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>4.95</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.34</v>
+        <v>2.58</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="AN25" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,128 +4005,128 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>2.76</v>
       </c>
       <c r="H26" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>3.71</v>
       </c>
       <c r="J26" t="n">
-        <v>2.9</v>
+        <v>2.61</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="L26" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="M26" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="N26" t="n">
-        <v>2.75</v>
+        <v>3.28</v>
       </c>
       <c r="O26" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P26" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="R26" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="S26" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="T26" t="n">
-        <v>1.81</v>
+        <v>2.19</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="X26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Y26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC26" t="n">
         <v>1.28</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.31</v>
       </c>
       <c r="AD26" t="n">
         <v>2.54</v>
       </c>
       <c r="AE26" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AK26" t="n">
-        <v>2.84</v>
+        <v>3.34</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AM26" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.72</v>
+        <v>2.34</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="27">
@@ -4166,13 +4166,13 @@
         <v>7.25</v>
       </c>
       <c r="J27" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="K27" t="n">
-        <v>5.6</v>
+        <v>5.44</v>
       </c>
       <c r="L27" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="M27" t="n">
         <v>1.31</v>
@@ -4193,10 +4193,10 @@
         <v>4.33</v>
       </c>
       <c r="S27" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="T27" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="U27" t="n">
         <v>2.1</v>
@@ -4287,55 +4287,55 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.65</v>
-      </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="U28" t="n">
         <v>1.8</v>
@@ -4344,67 +4344,67 @@
         <v>1.95</v>
       </c>
       <c r="W28" t="n">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="X28" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.5</v>
+        <v>1.28</v>
       </c>
       <c r="Z28" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>2.07</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.87</v>
+        <v>2.54</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.41</v>
+        <v>2.03</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG28" t="n">
-        <v>3.48</v>
+        <v>2.03</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AK28" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AM28" t="n">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="AN28" t="n">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.14</v>
+        <v>2.72</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="29">
@@ -4426,31 +4426,31 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="L29" t="n">
-        <v>3.85</v>
+        <v>6.26</v>
       </c>
       <c r="M29" t="n">
         <v>1.36</v>
@@ -4459,91 +4459,91 @@
         <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P29" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R29" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="T29" t="n">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="U29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.7</v>
       </c>
-      <c r="V29" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="X29" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.83</v>
+        <v>2.85</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.73</v>
+        <v>2.07</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.13</v>
+        <v>0.77</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.37</v>
+        <v>2.72</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.96</v>
+        <v>4.65</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.42</v>
+        <v>3.95</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AK29" t="n">
-        <v>2.47</v>
+        <v>2.76</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.18</v>
+        <v>2.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="30">
@@ -4565,124 +4565,124 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="K30" t="n">
-        <v>3.85</v>
+        <v>4.25</v>
       </c>
       <c r="L30" t="n">
-        <v>4.6</v>
+        <v>5.55</v>
       </c>
       <c r="M30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N30" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P30" t="n">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="R30" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="S30" t="n">
-        <v>2.01</v>
+        <v>1.57</v>
       </c>
       <c r="T30" t="n">
-        <v>1.81</v>
+        <v>2.25</v>
       </c>
       <c r="U30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.95</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="X30" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.43</v>
+        <v>2.87</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AG30" t="n">
         <v>3.48</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AI30" t="n">
-        <v>3.34</v>
+        <v>4.75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.41</v>
+        <v>3.65</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.87</v>
+        <v>2.65</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.39</v>
+        <v>1.95</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="31">
@@ -4704,43 +4704,43 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="L31" t="n">
-        <v>2.55</v>
+        <v>3.88</v>
       </c>
       <c r="M31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>1.05</v>
       </c>
       <c r="P31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Q31" t="n">
         <v>1.22</v>
@@ -4749,79 +4749,79 @@
         <v>3.7</v>
       </c>
       <c r="S31" t="n">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="T31" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V31" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO31" t="n">
         <v>1.52</v>
       </c>
-      <c r="X31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB31" t="n">
+      <c r="AP31" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>1.28</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>1.53</v>
       </c>
     </row>
     <row r="32">
@@ -4843,55 +4843,55 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Derby County</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="H32" t="n">
         <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>4.3</v>
+        <v>1.69</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
       <c r="L32" t="n">
-        <v>1.81</v>
+        <v>4.95</v>
       </c>
       <c r="M32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P32" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="R32" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="S32" t="n">
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U32" t="n">
         <v>1.95</v>
@@ -4900,67 +4900,67 @@
         <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="X32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.21</v>
+        <v>2.08</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.78</v>
+        <v>2.43</v>
       </c>
       <c r="AE32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK32" t="n">
         <v>2.41</v>
       </c>
-      <c r="AF32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>3.84</v>
-      </c>
       <c r="AL32" t="n">
-        <v>1.39</v>
+        <v>1.87</v>
       </c>
       <c r="AM32" t="n">
-        <v>2.76</v>
+        <v>1.87</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.69</v>
+        <v>2.39</v>
       </c>
       <c r="AO32" t="n">
-        <v>2.09</v>
+        <v>1.51</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="33">
@@ -4982,124 +4982,124 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Derby County</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.86</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="L33" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="M33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O33" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P33" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R33" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="S33" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U33" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W33" t="n">
         <v>2</v>
       </c>
-      <c r="W33" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z33" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.07</v>
-      </c>
       <c r="AA33" t="n">
-        <v>0.93</v>
+        <v>2</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="AE33" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AI33" t="n">
-        <v>3.65</v>
+        <v>4.75</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AK33" t="n">
-        <v>2.58</v>
+        <v>3.84</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.78</v>
+        <v>1.39</v>
       </c>
       <c r="AM33" t="n">
-        <v>1.97</v>
+        <v>2.76</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.57</v>
+        <v>2.09</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.98</v>
+        <v>2.08</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.32</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="34">
@@ -5121,31 +5121,31 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I34" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.81</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L34" t="n">
-        <v>4.3</v>
+        <v>2.53</v>
       </c>
       <c r="M34" t="n">
         <v>1.4</v>
@@ -5157,88 +5157,88 @@
         <v>1.05</v>
       </c>
       <c r="P34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="R34" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="S34" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="T34" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W34" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="X34" t="n">
         <v>1.25</v>
       </c>
       <c r="Y34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AN34" t="n">
         <v>1.85</v>
       </c>
-      <c r="Z34" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>2.01</v>
-      </c>
       <c r="AO34" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="35">
@@ -5278,13 +5278,13 @@
         <v>2.3</v>
       </c>
       <c r="J35" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>3.81</v>
       </c>
       <c r="L35" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="M35" t="n">
         <v>1.37</v>
@@ -5305,10 +5305,10 @@
         <v>3.45</v>
       </c>
       <c r="S35" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="U35" t="n">
         <v>1.8</v>
@@ -5417,13 +5417,13 @@
         <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="L36" t="n">
-        <v>5.2</v>
+        <v>5.15</v>
       </c>
       <c r="M36" t="n">
         <v>1.44</v>
@@ -5444,10 +5444,10 @@
         <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U36" t="n">
         <v>2.05</v>
